--- a/tests/bin/OpenRefine_exports/2_DB1_16-17.xlsx
+++ b/tests/bin/OpenRefine_exports/2_DB1_16-17.xlsx
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G2" t="n">
         <v>1888.0</v>
@@ -161,7 +161,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G3" t="n">
         <v>1983.0</v>
@@ -194,7 +194,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G4" t="n">
         <v>2287.0</v>
@@ -227,7 +227,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G5" t="n">
         <v>3493.0</v>
@@ -260,7 +260,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G6" t="n">
         <v>4466.0</v>
@@ -293,7 +293,7 @@
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G7" t="n">
         <v>1596.0</v>
@@ -326,7 +326,7 @@
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G8" t="n">
         <v>1786.0</v>
@@ -359,7 +359,7 @@
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G9" t="n">
         <v>3600.0</v>
@@ -392,7 +392,7 @@
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G10" t="n">
         <v>4275.0</v>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G11" t="n">
         <v>4183.0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G12" t="n">
         <v>1466.0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G13" t="n">
         <v>1781.0</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G14" t="n">
         <v>38.0</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G15" t="n">
         <v>10.0</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G16" t="n">
         <v>21.0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G17" t="n">
         <v>24.0</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G18" t="n">
         <v>283.0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G19" t="n">
         <v>115.0</v>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G20" t="n">
         <v>14.0</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G21" t="n">
         <v>22.0</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G22" t="n">
         <v>83.0</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G23" t="n">
         <v>93.0</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G24" t="n">
         <v>40.0</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G25" t="n">
         <v>15.0</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G26" t="n">
         <v>6.0</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G27" t="n">
         <v>12.0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G28" t="n">
         <v>34.0</v>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G29" t="n">
         <v>25.0</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G30" t="n">
         <v>191.0</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G31" t="n">
         <v>119.0</v>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G32" t="n">
         <v>25.0</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G33" t="n">
         <v>22.0</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G34" t="n">
         <v>98.0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G35" t="n">
         <v>84.0</v>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G36" t="n">
         <v>64.0</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="F37" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G37" t="n">
         <v>16.0</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="F38" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G38" t="n">
         <v>23.0</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="F39" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G39" t="n">
         <v>3762.0</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="F40" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G40" t="n">
         <v>2767.0</v>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="F41" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G41" t="n">
         <v>5038.0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="F42" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G42" t="n">
         <v>6577.0</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="F43" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G43" t="n">
         <v>6614.0</v>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="F44" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G44" t="n">
         <v>2868.0</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F45" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G45" t="n">
         <v>3316.0</v>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F46" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G46" t="n">
         <v>351.0</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="F47" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G47" t="n">
         <v>38.0</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="F48" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G48" t="n">
         <v>3503.0</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F49" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G49" t="n">
         <v>3176.0</v>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="F50" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G50" t="n">
         <v>8685.0</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F51" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G51" t="n">
         <v>3165.0</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F52" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G52" t="n">
         <v>2224.0</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="F53" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G53" t="n">
         <v>1360.0</v>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="F54" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G54" t="n">
         <v>1457.0</v>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="F55" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G55" t="n">
         <v>124.0</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="F56" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="G56" t="n">
         <v>3511.0</v>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="F57" s="1" t="n">
-        <v>42583.208333333336</v>
+        <v>42583.0</v>
       </c>
       <c r="G57" t="n">
         <v>2908.0</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="F58" s="1" t="n">
-        <v>42614.208333333336</v>
+        <v>42614.0</v>
       </c>
       <c r="G58" t="n">
         <v>8745.0</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="F59" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="G59" t="n">
         <v>3435.0</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F60" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="G60" t="n">
         <v>2506.0</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="F61" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="G61" t="n">
         <v>1434.0</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="F62" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G62" t="n">
         <v>1291.0</v>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F63" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G63" t="n">
         <v>109.0</v>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F64" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G64" t="n">
         <v>6184.0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F65" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G65" t="n">
         <v>6637.0</v>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="F66" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G66" t="n">
         <v>6075.0</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="F67" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G67" t="n">
         <v>2463.0</v>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="F68" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G68" t="n">
         <v>3322.0</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="F69" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G69" t="n">
         <v>2250.0</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="F70" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G70" t="n">
         <v>2214.0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="F71" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G71" t="n">
         <v>1506.0</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="F72" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G72" t="n">
         <v>6997.0</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="F73" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G73" t="n">
         <v>5145.0</v>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="F74" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G74" t="n">
         <v>2219.0</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="F75" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G75" t="n">
         <v>2108.0</v>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="F76" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G76" t="n">
         <v>1282.0</v>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F77" s="1" t="n">
-        <v>42856.208333333336</v>
+        <v>42856.0</v>
       </c>
       <c r="G77" t="n">
         <v>6850.0</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F78" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G78" t="n">
         <v>4824.0</v>
